--- a/IndexCheck.xlsx
+++ b/IndexCheck.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9220" yWindow="2840" windowWidth="24800" windowHeight="16100"/>
+    <workbookView xWindow="1800" yWindow="1380" windowWidth="24800" windowHeight="16100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
       <name val="Verdana"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -54,8 +54,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -63,14 +81,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,7 +411,7 @@
   <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="X10" sqref="X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -434,7 +470,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="O1" s="2">
+      <c r="O1" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -442,7 +478,7 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="Q1" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -450,7 +486,7 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="S1" s="2">
+      <c r="S1" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -538,7 +574,7 @@
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2" s="5">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
@@ -642,7 +678,7 @@
         <f t="shared" si="2"/>
         <v>63</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3" s="5">
         <f t="shared" si="2"/>
         <v>64</v>
       </c>
@@ -1175,7 +1211,7 @@
         <f t="shared" si="3"/>
         <v>190</v>
       </c>
-      <c r="X8" s="1">
+      <c r="X8" s="5">
         <f t="shared" si="3"/>
         <v>191</v>
       </c>
@@ -1248,7 +1284,7 @@
         <f t="shared" si="5"/>
         <v>207</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q9" s="5">
         <f t="shared" si="5"/>
         <v>208</v>
       </c>
@@ -1264,7 +1300,7 @@
         <f t="shared" si="3"/>
         <v>211</v>
       </c>
-      <c r="U9" s="1">
+      <c r="U9" s="3">
         <f t="shared" si="3"/>
         <v>212</v>
       </c>
@@ -1377,7 +1413,7 @@
         <f t="shared" si="3"/>
         <v>238</v>
       </c>
-      <c r="X10" s="1">
+      <c r="X10" s="5">
         <f t="shared" si="3"/>
         <v>239</v>
       </c>
@@ -2874,6 +2910,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2892,6 +2929,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData/>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -2909,6 +2947,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData/>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">

--- a/IndexCheck.xlsx
+++ b/IndexCheck.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="1380" windowWidth="24800" windowHeight="16100"/>
+    <workbookView xWindow="13960" yWindow="320" windowWidth="24800" windowHeight="16100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
       <name val="Verdana"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -72,6 +72,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -100,13 +106,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,7 +418,7 @@
   <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X10" sqref="X10"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -2492,7 +2499,7 @@
         <f t="shared" si="7"/>
         <v>494</v>
       </c>
-      <c r="P21" s="1">
+      <c r="P21" s="6">
         <f t="shared" si="7"/>
         <v>495</v>
       </c>
@@ -2910,7 +2917,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2929,7 +2935,6 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData/>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -2947,7 +2952,6 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData/>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
